--- a/src/analysis_examples/circadb/results_jtk/cosinor_10501661_srsf3_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10501661_srsf3_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.1881415659576906, 0.3201866188596775]</t>
+          <t>[0.18868544485182603, 0.31964273996554204]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8.140131191325395e-08</v>
+        <v>7.127005163809486e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>8.140131191325395e-08</v>
+        <v>7.127005163809486e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6289474781961548</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.8931054190385401, -0.3647895373537695]</t>
+          <t>[-0.8805264694746171, -0.37736848691769254]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>6.722195515340701e-05</v>
+        <v>3.751782293837103e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>6.722195515340701e-05</v>
+        <v>3.751782293837103e-05</v>
       </c>
       <c r="S2" t="n">
         <v>0.4435171981435291</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.40971239618642125, 0.4773220001006369]</t>
+          <t>[0.409719325217081, 0.47731507106997717]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.576576576576667</v>
       </c>
       <c r="X2" t="n">
-        <v>1.494414414414466</v>
+        <v>1.545945945945999</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.658738738738868</v>
+        <v>3.607207207207335</v>
       </c>
     </row>
   </sheetData>
